--- a/data/excel/matches.xlsx
+++ b/data/excel/matches.xlsx
@@ -694,7 +694,11 @@
           <t>RCB</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>MA Chidambaram Stadium, Chennai</t>
@@ -720,7 +724,11 @@
           <t>MI</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Narendra Modi Stadium, Ahmedabad</t>
@@ -746,7 +754,11 @@
           <t>SRH</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Dr. Y.S. Rajasekhara Reddy ACA-VDCA Cricket Stadium, Visakhapatnam</t>
@@ -772,7 +784,11 @@
           <t>CSK</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Barsapara Cricket Stadium, Guwahati</t>
